--- a/Rendu/Journaux.xlsx
+++ b/Rendu/Journaux.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>Date</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>Lancement du projet de Pré-TPI, téléchargement documents &amp; personnalisation, création des journaux, création Github</t>
+  </si>
+  <si>
+    <t>Recherche documentation</t>
+  </si>
+  <si>
+    <t>Normes ISO:27001 afin de créer un politique de sécurité de l'information pour mon entreprise</t>
   </si>
 </sst>
 </file>
@@ -461,7 +467,7 @@
   <dimension ref="A1:H270"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -528,68 +534,461 @@
         <v>0.10763888888888884</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
-    <row r="17" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
-    <row r="18" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
-    <row r="19" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
-    <row r="20" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
-    <row r="21" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
-    <row r="22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
-    <row r="23" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
-    <row r="24" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
-    <row r="25" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
-    <row r="26" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
-    <row r="27" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
-    <row r="28" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
-    <row r="29" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
-    <row r="30" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
-    <row r="31" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
-    <row r="32" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
-    <row r="33" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
-    <row r="34" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
-    <row r="35" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
-    <row r="36" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
-    <row r="37" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
-    <row r="38" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
-    <row r="39" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
-    <row r="40" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
-    <row r="41" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
-    <row r="42" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
-    <row r="43" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
-    <row r="44" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
-    <row r="45" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
-    <row r="46" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
-    <row r="47" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
-    <row r="48" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
-    <row r="49" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
-    <row r="50" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
-    <row r="51" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
-    <row r="52" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
-    <row r="53" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
-    <row r="54" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
-    <row r="55" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
-    <row r="56" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
-    <row r="57" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
-    <row r="58" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
-    <row r="59" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
-    <row r="60" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
-    <row r="61" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
-    <row r="62" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
-    <row r="63" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
-    <row r="64" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>44958</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="H3" s="7">
+        <f t="shared" ref="H3:H50" si="0">G3-F3</f>
+        <v>6.597222222222221E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="6:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="6:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="6:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="H51" s="7">
+        <f>SUM(H2:H50)</f>
+        <v>0.17361111111111105</v>
+      </c>
+    </row>
+    <row r="52" spans="6:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="6:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="6:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="6:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="6:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="6:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="6:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="6:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="6:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="6:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="6:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="6:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="6:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
     <row r="65" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
     <row r="66" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
     <row r="67" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>

--- a/Rendu/Journaux.xlsx
+++ b/Rendu/Journaux.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -92,6 +92,21 @@
   </si>
   <si>
     <t>Normes ISO:27001 afin de créer un politique de sécurité de l'information pour mon entreprise</t>
+  </si>
+  <si>
+    <t>Reçu sujet</t>
+  </si>
+  <si>
+    <t>Divers</t>
+  </si>
+  <si>
+    <t>Calculs moyennes, attente</t>
+  </si>
+  <si>
+    <t>Prise en main d'un Fortinet: prise en main, comprendre le fonctionnement, implanter un/des firewall virtuels + début recherches Fortinet</t>
+  </si>
+  <si>
+    <t>Réception sujet Pré-TPI</t>
   </si>
 </sst>
 </file>
@@ -467,7 +482,7 @@
   <dimension ref="A1:H270"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -475,8 +490,8 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="72" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="82.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="11.42578125" style="1"/>
   </cols>
@@ -562,21 +577,57 @@
       </c>
     </row>
     <row r="4" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+      <c r="A4" s="8">
+        <v>44958</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="H4" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.7777777777777679E-2</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
+      <c r="A5" s="8">
+        <v>44958</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.70486111111111116</v>
+      </c>
       <c r="H5" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.8194444444444531E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -973,7 +1024,7 @@
     <row r="51" spans="6:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="H51" s="7">
         <f>SUM(H2:H50)</f>
-        <v>0.17361111111111105</v>
+        <v>0.23958333333333326</v>
       </c>
     </row>
     <row r="52" spans="6:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
@@ -1218,13 +1269,13 @@
   <dimension ref="A1:C288"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="11.42578125" style="1"/>
   </cols>
@@ -1252,92 +1303,98 @@
       </c>
     </row>
     <row r="3" spans="1:3" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
+      <c r="A3" s="4">
+        <v>44958</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:3" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
+      <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:3" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
+      <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:3" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
+      <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:3" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
+      <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:3" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
+      <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
     </row>
     <row r="9" spans="1:3" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
+      <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:3" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
+      <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
     </row>
     <row r="11" spans="1:3" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
+      <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
     </row>
     <row r="12" spans="1:3" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
     </row>
     <row r="13" spans="1:3" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
     </row>
     <row r="14" spans="1:3" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:3" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:3" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
     </row>
     <row r="17" spans="1:3" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
+      <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
     </row>
     <row r="18" spans="1:3" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
+      <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
+      <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
     </row>
     <row r="20" spans="1:3" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
+      <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
     </row>

--- a/Rendu/Journaux.xlsx
+++ b/Rendu/Journaux.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>Date</t>
   </si>
@@ -107,6 +107,33 @@
   </si>
   <si>
     <t>Réception sujet Pré-TPI</t>
+  </si>
+  <si>
+    <t>Lecture, préparation questions pour Mr. Varela</t>
+  </si>
+  <si>
+    <t>Créations de VMs</t>
+  </si>
+  <si>
+    <t>Machines virtuelles VM1 et VM2 selon schéma. Pas touches aux réglages réseaux, NAT et DHCP reçu de l'école</t>
+  </si>
+  <si>
+    <t>Découverte cahier des charges</t>
+  </si>
+  <si>
+    <t>Réception Cahier des charges</t>
+  </si>
+  <si>
+    <t>Schéma logique</t>
+  </si>
+  <si>
+    <t>Préparation du schéma logique, avec les éléments actuels.</t>
+  </si>
+  <si>
+    <t>Création document principal</t>
+  </si>
+  <si>
+    <t>Mis en en place documentation</t>
   </si>
 </sst>
 </file>
@@ -482,7 +509,7 @@
   <dimension ref="A1:H270"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -490,7 +517,7 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="82.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="11.42578125" style="1"/>
@@ -556,7 +583,7 @@
       <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -583,7 +610,7 @@
       <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -610,7 +637,7 @@
       <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -631,52 +658,133 @@
       </c>
     </row>
     <row r="6" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="A6" s="8">
+        <v>44959</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.4375</v>
+      </c>
       <c r="H6" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.7777777777777735E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
+      <c r="A7" s="8">
+        <v>44959</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0.4375</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0.4861111111111111</v>
+      </c>
       <c r="H7" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.8611111111111105E-2</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="A8" s="8">
+        <v>44959</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.5</v>
+      </c>
       <c r="H8" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.3888888888888895E-2</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="A9" s="8">
+        <v>44959</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0.51041666666666663</v>
+      </c>
       <c r="H9" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.041666666666663E-2</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="F10" s="7"/>
+      <c r="A10" s="8">
+        <v>44959</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="F10" s="7">
+        <v>13.3</v>
+      </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-13.3</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
+      <c r="C11" s="9"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7">
@@ -686,6 +794,7 @@
     </row>
     <row r="12" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
+      <c r="C12" s="9"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7">
@@ -695,6 +804,7 @@
     </row>
     <row r="13" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
+      <c r="C13" s="9"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7">
@@ -704,6 +814,7 @@
     </row>
     <row r="14" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
+      <c r="C14" s="9"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7">
@@ -713,6 +824,7 @@
     </row>
     <row r="15" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
+      <c r="C15" s="9"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7">
@@ -722,6 +834,7 @@
     </row>
     <row r="16" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
+      <c r="C16" s="9"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7">
@@ -731,6 +844,7 @@
     </row>
     <row r="17" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
+      <c r="C17" s="9"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7">
@@ -740,6 +854,7 @@
     </row>
     <row r="18" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
+      <c r="C18" s="9"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7">
@@ -749,6 +864,7 @@
     </row>
     <row r="19" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
+      <c r="C19" s="9"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7">
@@ -758,6 +874,7 @@
     </row>
     <row r="20" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
+      <c r="C20" s="9"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7">
@@ -767,6 +884,7 @@
     </row>
     <row r="21" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
+      <c r="C21" s="9"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7">
@@ -776,6 +894,7 @@
     </row>
     <row r="22" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
+      <c r="C22" s="9"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7">
@@ -785,6 +904,7 @@
     </row>
     <row r="23" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
+      <c r="C23" s="9"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7">
@@ -794,6 +914,7 @@
     </row>
     <row r="24" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
+      <c r="C24" s="9"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7">
@@ -803,6 +924,7 @@
     </row>
     <row r="25" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
+      <c r="C25" s="9"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7">
@@ -812,6 +934,7 @@
     </row>
     <row r="26" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
+      <c r="C26" s="9"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7">
@@ -821,6 +944,7 @@
     </row>
     <row r="27" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
+      <c r="C27" s="9"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7">
@@ -830,6 +954,7 @@
     </row>
     <row r="28" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
+      <c r="C28" s="9"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7">
@@ -839,6 +964,7 @@
     </row>
     <row r="29" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
+      <c r="C29" s="9"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7">
@@ -848,6 +974,7 @@
     </row>
     <row r="30" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
+      <c r="C30" s="9"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7">
@@ -857,6 +984,7 @@
     </row>
     <row r="31" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
+      <c r="C31" s="9"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7">
@@ -866,6 +994,7 @@
     </row>
     <row r="32" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
+      <c r="C32" s="9"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c r="H32" s="7">
@@ -875,6 +1004,7 @@
     </row>
     <row r="33" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
+      <c r="C33" s="9"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="7">
@@ -884,6 +1014,7 @@
     </row>
     <row r="34" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
+      <c r="C34" s="9"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="7">
@@ -893,6 +1024,7 @@
     </row>
     <row r="35" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
+      <c r="C35" s="9"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c r="H35" s="7">
@@ -902,6 +1034,7 @@
     </row>
     <row r="36" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
+      <c r="C36" s="9"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="H36" s="7">
@@ -910,6 +1043,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="C37" s="9"/>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c r="H37" s="7">
@@ -918,6 +1052,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="C38" s="9"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c r="H38" s="7">
@@ -926,6 +1061,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="C39" s="9"/>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c r="H39" s="7">
@@ -934,6 +1070,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="C40" s="9"/>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="7">
@@ -942,6 +1079,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="C41" s="9"/>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="7">
@@ -950,6 +1088,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="C42" s="9"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c r="H42" s="7">
@@ -958,6 +1097,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="C43" s="9"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c r="H43" s="7">
@@ -966,6 +1106,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="C44" s="9"/>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="7">
@@ -974,6 +1115,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="C45" s="9"/>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c r="H45" s="7">
@@ -982,6 +1124,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="C46" s="9"/>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c r="H46" s="7">
@@ -990,6 +1133,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="C47" s="9"/>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c r="H47" s="7">
@@ -998,6 +1142,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="C48" s="9"/>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c r="H48" s="7">
@@ -1005,7 +1150,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="6:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="C49" s="9"/>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c r="H49" s="7">
@@ -1013,7 +1159,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="6:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="C50" s="9"/>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c r="H50" s="7">
@@ -1021,25 +1168,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="6:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="H51" s="7">
         <f>SUM(H2:H50)</f>
-        <v>0.23958333333333326</v>
-      </c>
-    </row>
-    <row r="52" spans="6:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="6:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="6:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="6:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="6:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="6:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="6:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="6:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="6:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="6:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="6:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="6:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="6:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
+        <v>-12.959722222222224</v>
+      </c>
+    </row>
+    <row r="52" spans="3:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="3:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="3:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="3:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="3:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="3:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="3:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="3:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="3:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="3:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="3:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="3:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="3:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
     <row r="65" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
     <row r="66" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
     <row r="67" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
@@ -1256,7 +1403,7 @@
           <x14:formula1>
             <xm:f>Paramètres!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>C2</xm:sqref>
+          <xm:sqref>C2:C5 C7:C50</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1269,13 +1416,13 @@
   <dimension ref="A1:C288"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="11.42578125" style="1"/>
   </cols>
@@ -1314,8 +1461,12 @@
       </c>
     </row>
     <row r="4" spans="1:3" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
+      <c r="A4" s="4">
+        <v>44959</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:3" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">

--- a/Rendu/Journaux.xlsx
+++ b/Rendu/Journaux.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>Date</t>
   </si>
@@ -134,6 +134,24 @@
   </si>
   <si>
     <t>Mis en en place documentation</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Réception fortinet</t>
+  </si>
+  <si>
+    <t>Réception, déballage et inventaire du matériel reçu</t>
+  </si>
+  <si>
+    <t>Découverte du matériel</t>
+  </si>
+  <si>
+    <t>Lecture mode d'emploi et recherche documentation supplémentaire</t>
+  </si>
+  <si>
+    <t>Démarrage</t>
   </si>
 </sst>
 </file>
@@ -509,7 +527,7 @@
   <dimension ref="A1:H270"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -557,7 +575,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>5</v>
@@ -584,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>20</v>
@@ -611,7 +629,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>23</v>
@@ -638,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>22</v>
@@ -665,7 +683,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>30</v>
@@ -772,24 +790,51 @@
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="9"/>
+      <c r="C10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="F10" s="7">
-        <v>13.3</v>
-      </c>
-      <c r="G10" s="7"/>
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0.58333333333333337</v>
+      </c>
       <c r="H10" s="7">
         <f t="shared" si="0"/>
-        <v>-13.3</v>
+        <v>1.3888888888888951E-2</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="A11" s="8">
+        <v>44959</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0.62847222222222221</v>
+      </c>
       <c r="H11" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.513888888888884E-2</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -1171,7 +1216,7 @@
     <row r="51" spans="3:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="H51" s="7">
         <f>SUM(H2:H50)</f>
-        <v>-12.959722222222224</v>
+        <v>0.39930555555555541</v>
       </c>
     </row>
     <row r="52" spans="3:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
@@ -1401,9 +1446,9 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Paramètres!$A$2:$A$6</xm:f>
+            <xm:f>Paramètres!$A$2:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C5 C7:C50</xm:sqref>
+          <xm:sqref>C2:C50</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1416,7 +1461,7 @@
   <dimension ref="A1:C288"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1467,7 +1512,9 @@
       <c r="B4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="5" spans="1:3" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
@@ -2897,10 +2944,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2938,6 +2985,11 @@
         <v>18</v>
       </c>
     </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Rendu/Journaux.xlsx
+++ b/Rendu/Journaux.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
   <si>
     <t>Date</t>
   </si>
@@ -151,7 +151,34 @@
     <t>Lecture mode d'emploi et recherche documentation supplémentaire</t>
   </si>
   <si>
-    <t>Démarrage</t>
+    <t>Prise de contact Sip</t>
+  </si>
+  <si>
+    <t>Communication avec Sip</t>
+  </si>
+  <si>
+    <t>Mise en place</t>
+  </si>
+  <si>
+    <t>Préparation de la communication au SIp pour sortie sur Internet + récupération règles de sorties du CPNV + visite Sip</t>
+  </si>
+  <si>
+    <t>Installation physique du Fortinet sur PC16 + cable management</t>
+  </si>
+  <si>
+    <t>Installation</t>
+  </si>
+  <si>
+    <t>Découverte interface</t>
+  </si>
+  <si>
+    <t>Premiers pas, reset complet du système</t>
+  </si>
+  <si>
+    <t>Premiers pas, découverte interface</t>
+  </si>
+  <si>
+    <t>Journaux</t>
   </si>
 </sst>
 </file>
@@ -527,7 +554,7 @@
   <dimension ref="A1:H270"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -575,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>5</v>
@@ -602,7 +629,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>20</v>
@@ -629,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>23</v>
@@ -656,7 +683,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>22</v>
@@ -683,7 +710,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>30</v>
@@ -791,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>37</v>
@@ -818,7 +845,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>39</v>
@@ -838,53 +865,135 @@
       </c>
     </row>
     <row r="12" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
+      <c r="A12" s="8">
+        <v>44964</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0.5625</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0.59375</v>
+      </c>
       <c r="H12" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+      <c r="A13" s="8">
+        <v>44964</v>
+      </c>
+      <c r="B13" s="3">
+        <v>2</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0.59375</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0.60763888888888895</v>
+      </c>
       <c r="H13" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.3888888888888951E-2</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
+      <c r="A14" s="8">
+        <v>44964</v>
+      </c>
+      <c r="B14" s="3">
+        <v>2</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0.60763888888888895</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0.62847222222222221</v>
+      </c>
       <c r="H14" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333259E-2</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
+      <c r="A15" s="8">
+        <v>44964</v>
+      </c>
+      <c r="B15" s="3">
+        <v>2</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0.66319444444444442</v>
+      </c>
       <c r="H15" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.4305555555555469E-2</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
+      <c r="A16" s="8">
+        <v>44964</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0.66319444444444442</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0.67013888888888884</v>
+      </c>
       <c r="H16" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.9444444444444198E-3</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -1216,7 +1325,7 @@
     <row r="51" spans="3:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="H51" s="7">
         <f>SUM(H2:H50)</f>
-        <v>0.39930555555555541</v>
+        <v>0.49652777777777751</v>
       </c>
     </row>
     <row r="52" spans="3:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
@@ -1517,8 +1626,12 @@
       </c>
     </row>
     <row r="5" spans="1:3" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
+      <c r="A5" s="4">
+        <v>44964</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:3" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2987,7 +3100,7 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Rendu/Journaux.xlsx
+++ b/Rendu/Journaux.xlsx
@@ -9,12 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13455" windowHeight="12255"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13455" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Journal de travail" sheetId="2" r:id="rId1"/>
-    <sheet name="Journal de bord" sheetId="1" r:id="rId2"/>
-    <sheet name="Paramètres" sheetId="3" r:id="rId3"/>
+    <sheet name="Planification" sheetId="5" r:id="rId1"/>
+    <sheet name="Journal de travail" sheetId="2" r:id="rId2"/>
+    <sheet name="Journal de bord" sheetId="1" r:id="rId3"/>
+    <sheet name="Sources" sheetId="4" r:id="rId4"/>
+    <sheet name="Paramètres" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="80">
   <si>
     <t>Date</t>
   </si>
@@ -179,6 +181,93 @@
   </si>
   <si>
     <t>Journaux</t>
+  </si>
+  <si>
+    <t>Mise à jour des journaux</t>
+  </si>
+  <si>
+    <t>Planification initiale</t>
+  </si>
+  <si>
+    <t>Analyse préliminaire: introduction, objectifs</t>
+  </si>
+  <si>
+    <t>Damien Mayor</t>
+  </si>
+  <si>
+    <t>www.test.ch</t>
+  </si>
+  <si>
+    <t>Date consultation</t>
+  </si>
+  <si>
+    <t>Date (parution)</t>
+  </si>
+  <si>
+    <t>Auteur</t>
+  </si>
+  <si>
+    <t>Titre/URL</t>
+  </si>
+  <si>
+    <t>7.2-11.2</t>
+  </si>
+  <si>
+    <t>Lundi</t>
+  </si>
+  <si>
+    <t>Mardi</t>
+  </si>
+  <si>
+    <t>Mercredi</t>
+  </si>
+  <si>
+    <t>Jeudi</t>
+  </si>
+  <si>
+    <t>Vendredi</t>
+  </si>
+  <si>
+    <t>Pré-TPI</t>
+  </si>
+  <si>
+    <t>30.1-3.2</t>
+  </si>
+  <si>
+    <t>20.2-24.2</t>
+  </si>
+  <si>
+    <t>27.2-3.3</t>
+  </si>
+  <si>
+    <t>6.3-10.3</t>
+  </si>
+  <si>
+    <t>13.3-17.3</t>
+  </si>
+  <si>
+    <t>20.3-24.3</t>
+  </si>
+  <si>
+    <t>27.3-31.3</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>* conférence des maîtres</t>
+  </si>
+  <si>
+    <t>Prise en main</t>
+  </si>
+  <si>
+    <t>Présentation</t>
+  </si>
+  <si>
+    <t>Total périodes</t>
+  </si>
+  <si>
+    <t>Analyse et recherches</t>
   </si>
 </sst>
 </file>
@@ -188,7 +277,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,16 +313,80 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -241,11 +394,92 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -271,8 +505,53 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -551,10 +830,1599 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N97"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="7.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+    </row>
+    <row r="2" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26"/>
+      <c r="B2" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="29">
+        <v>44956</v>
+      </c>
+      <c r="D2" s="29">
+        <v>44957</v>
+      </c>
+      <c r="E2" s="29">
+        <v>44958</v>
+      </c>
+      <c r="F2" s="29">
+        <v>44959</v>
+      </c>
+      <c r="G2" s="30">
+        <v>44960</v>
+      </c>
+      <c r="H2" s="26"/>
+      <c r="J2" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="K2" s="31">
+        <v>0.125</v>
+      </c>
+      <c r="L2" s="27">
+        <f>$N$2*K2</f>
+        <v>10.25</v>
+      </c>
+      <c r="M2" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="N2" s="27">
+        <f>(6*12)+(1*10)</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
+      <c r="B3" s="16">
+        <v>1</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="15"/>
+      <c r="J3" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="K3" s="31">
+        <v>0.2</v>
+      </c>
+      <c r="L3" s="27">
+        <f t="shared" ref="L3:L6" si="0">$N$2*K3</f>
+        <v>16.400000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="19">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="15"/>
+      <c r="J4" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="L4" s="27">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
+      <c r="B5" s="19">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="15"/>
+      <c r="J5" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="L5" s="27">
+        <f t="shared" si="0"/>
+        <v>8.2000000000000011</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="B6" s="19">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="21"/>
+      <c r="H6" s="15"/>
+      <c r="J6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="31">
+        <v>0.2</v>
+      </c>
+      <c r="L6" s="27">
+        <f t="shared" si="0"/>
+        <v>16.400000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+      <c r="B7" s="19">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="21"/>
+      <c r="H7" s="15"/>
+      <c r="K7" s="32">
+        <f>SUM(K2:K6)</f>
+        <v>1.125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="19">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="21"/>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="19">
+        <v>0.5625</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="20"/>
+      <c r="F9" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="21"/>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
+      <c r="B10" s="19">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="20"/>
+      <c r="F10" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="21"/>
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
+      <c r="B11" s="19">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="20"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+      <c r="B12" s="22">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="23"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="29">
+        <v>44964</v>
+      </c>
+      <c r="D14" s="29">
+        <v>44965</v>
+      </c>
+      <c r="E14" s="29">
+        <v>44966</v>
+      </c>
+      <c r="F14" s="29">
+        <v>44967</v>
+      </c>
+      <c r="G14" s="30">
+        <v>44968</v>
+      </c>
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="16">
+        <v>2</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="19">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="19">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="15"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+      <c r="B18" s="19">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="21"/>
+      <c r="H18" s="15"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
+      <c r="B19" s="19">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="21"/>
+      <c r="H19" s="15"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
+      <c r="B20" s="19">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="21"/>
+      <c r="H20" s="15"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
+      <c r="B21" s="19">
+        <v>0.5625</v>
+      </c>
+      <c r="C21" s="20"/>
+      <c r="D21" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="20"/>
+      <c r="F21" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="G21" s="21"/>
+      <c r="H21" s="15"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
+      <c r="B22" s="19">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="C22" s="20"/>
+      <c r="D22" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="20"/>
+      <c r="F22" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="G22" s="21"/>
+      <c r="H22" s="15"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="B23" s="19">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="C23" s="20"/>
+      <c r="D23" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" s="20"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+      <c r="B24" s="22">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" s="23"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="15"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
+      <c r="B26" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="29">
+        <v>44977</v>
+      </c>
+      <c r="D26" s="29">
+        <v>44978</v>
+      </c>
+      <c r="E26" s="29">
+        <v>44979</v>
+      </c>
+      <c r="F26" s="29">
+        <v>44980</v>
+      </c>
+      <c r="G26" s="30">
+        <v>44981</v>
+      </c>
+      <c r="H26" s="15"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
+      <c r="B27" s="16">
+        <v>3</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="H27" s="15"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="B28" s="19">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="15"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
+      <c r="B29" s="19">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="15"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="15"/>
+      <c r="B30" s="19">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G30" s="21"/>
+      <c r="H30" s="15"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="15"/>
+      <c r="B31" s="19">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G31" s="21"/>
+      <c r="H31" s="15"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="15"/>
+      <c r="B32" s="19">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G32" s="21"/>
+      <c r="H32" s="15"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="15"/>
+      <c r="B33" s="19">
+        <v>0.5625</v>
+      </c>
+      <c r="C33" s="20"/>
+      <c r="D33" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" s="20"/>
+      <c r="F33" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G33" s="21"/>
+      <c r="H33" s="15"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="15"/>
+      <c r="B34" s="19">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="C34" s="20"/>
+      <c r="D34" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34" s="20"/>
+      <c r="F34" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G34" s="21"/>
+      <c r="H34" s="15"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="15"/>
+      <c r="B35" s="19">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="C35" s="20"/>
+      <c r="D35" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" s="20"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="15"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="15"/>
+      <c r="B36" s="22">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="F36" s="23"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="15"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="15"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="15"/>
+      <c r="B38" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" s="29">
+        <v>44984</v>
+      </c>
+      <c r="D38" s="29">
+        <v>44985</v>
+      </c>
+      <c r="E38" s="29">
+        <v>44986</v>
+      </c>
+      <c r="F38" s="29">
+        <v>44987</v>
+      </c>
+      <c r="G38" s="30">
+        <v>44988</v>
+      </c>
+      <c r="H38" s="15"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="15"/>
+      <c r="B39" s="16">
+        <v>4</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F39" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="G39" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="H39" s="15"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="15"/>
+      <c r="B40" s="19">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="15"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="15"/>
+      <c r="B41" s="19">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="15"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="15"/>
+      <c r="B42" s="19">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G42" s="21"/>
+      <c r="H42" s="15"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="15"/>
+      <c r="B43" s="19">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F43" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G43" s="21"/>
+      <c r="H43" s="15"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="15"/>
+      <c r="B44" s="19">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F44" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G44" s="21"/>
+      <c r="H44" s="15"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="15"/>
+      <c r="B45" s="19">
+        <v>0.5625</v>
+      </c>
+      <c r="C45" s="20"/>
+      <c r="D45" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E45" s="20"/>
+      <c r="F45" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G45" s="21"/>
+      <c r="H45" s="15"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="15"/>
+      <c r="B46" s="19">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="C46" s="20"/>
+      <c r="D46" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E46" s="20"/>
+      <c r="F46" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G46" s="21"/>
+      <c r="H46" s="15"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="15"/>
+      <c r="B47" s="19">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="C47" s="20"/>
+      <c r="D47" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E47" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F47" s="20"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="15"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="15"/>
+      <c r="B48" s="22">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="F48" s="23"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="15"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="15"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="15"/>
+      <c r="B50" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C50" s="29">
+        <v>44991</v>
+      </c>
+      <c r="D50" s="29">
+        <v>44992</v>
+      </c>
+      <c r="E50" s="29">
+        <v>44993</v>
+      </c>
+      <c r="F50" s="29">
+        <v>44994</v>
+      </c>
+      <c r="G50" s="30">
+        <v>44995</v>
+      </c>
+      <c r="H50" s="15"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="15"/>
+      <c r="B51" s="16">
+        <v>5</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E51" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F51" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="G51" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="H51" s="15"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="15"/>
+      <c r="B52" s="19">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="15"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="15"/>
+      <c r="B53" s="19">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="15"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="15"/>
+      <c r="B54" s="19">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G54" s="21"/>
+      <c r="H54" s="15"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="15"/>
+      <c r="B55" s="19">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F55" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G55" s="21"/>
+      <c r="H55" s="15"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="15"/>
+      <c r="B56" s="19">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F56" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G56" s="21"/>
+      <c r="H56" s="15"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="15"/>
+      <c r="B57" s="19">
+        <v>0.5625</v>
+      </c>
+      <c r="C57" s="20"/>
+      <c r="D57" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E57" s="20"/>
+      <c r="F57" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G57" s="21"/>
+      <c r="H57" s="15"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="15"/>
+      <c r="B58" s="19">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="C58" s="20"/>
+      <c r="D58" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E58" s="20"/>
+      <c r="F58" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G58" s="21"/>
+      <c r="H58" s="15"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="15"/>
+      <c r="B59" s="19">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="C59" s="20"/>
+      <c r="D59" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E59" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F59" s="20"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="15"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="15"/>
+      <c r="B60" s="22">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="F60" s="23"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="15"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="15"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="15"/>
+      <c r="B62" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C62" s="29">
+        <v>44998</v>
+      </c>
+      <c r="D62" s="29">
+        <v>44999</v>
+      </c>
+      <c r="E62" s="29">
+        <v>45000</v>
+      </c>
+      <c r="F62" s="29">
+        <v>45001</v>
+      </c>
+      <c r="G62" s="30">
+        <v>45002</v>
+      </c>
+      <c r="H62" s="15"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="15"/>
+      <c r="B63" s="16">
+        <v>6</v>
+      </c>
+      <c r="C63" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E63" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F63" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="G63" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="H63" s="15"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="15"/>
+      <c r="B64" s="19">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="15"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="15"/>
+      <c r="B65" s="19">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="C65" s="20"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="15"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="15"/>
+      <c r="B66" s="19">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="C66" s="20"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G66" s="21"/>
+      <c r="H66" s="15"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="15"/>
+      <c r="B67" s="19">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="C67" s="20"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F67" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G67" s="21"/>
+      <c r="H67" s="15"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="15"/>
+      <c r="B68" s="19">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C68" s="20"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F68" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G68" s="21"/>
+      <c r="H68" s="15"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="15"/>
+      <c r="B69" s="19">
+        <v>0.5625</v>
+      </c>
+      <c r="C69" s="20"/>
+      <c r="D69" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E69" s="20"/>
+      <c r="F69" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G69" s="21"/>
+      <c r="H69" s="15"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="15"/>
+      <c r="B70" s="19">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="C70" s="20"/>
+      <c r="D70" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E70" s="20"/>
+      <c r="F70" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G70" s="21"/>
+      <c r="H70" s="15"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="15"/>
+      <c r="B71" s="19">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="C71" s="20"/>
+      <c r="D71" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E71" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F71" s="20"/>
+      <c r="G71" s="21"/>
+      <c r="H71" s="15"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="15"/>
+      <c r="B72" s="22">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="C72" s="23"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="F72" s="23"/>
+      <c r="G72" s="25"/>
+      <c r="H72" s="15"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="15"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="15"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="15"/>
+      <c r="B74" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C74" s="29">
+        <v>45005</v>
+      </c>
+      <c r="D74" s="29">
+        <v>45006</v>
+      </c>
+      <c r="E74" s="29">
+        <v>45007</v>
+      </c>
+      <c r="F74" s="29">
+        <v>45008</v>
+      </c>
+      <c r="G74" s="30">
+        <v>45009</v>
+      </c>
+      <c r="H74" s="15"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="15"/>
+      <c r="B75" s="16">
+        <v>7</v>
+      </c>
+      <c r="C75" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D75" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E75" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F75" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="G75" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="H75" s="15"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="15"/>
+      <c r="B76" s="19">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C76" s="20"/>
+      <c r="D76" s="20"/>
+      <c r="E76" s="20"/>
+      <c r="F76" s="20"/>
+      <c r="G76" s="21"/>
+      <c r="H76" s="15"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="15"/>
+      <c r="B77" s="19">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="C77" s="20"/>
+      <c r="D77" s="20"/>
+      <c r="E77" s="20"/>
+      <c r="F77" s="20"/>
+      <c r="G77" s="21"/>
+      <c r="H77" s="15"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="15"/>
+      <c r="B78" s="19">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="C78" s="20"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="20"/>
+      <c r="F78" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G78" s="21"/>
+      <c r="H78" s="15"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="15"/>
+      <c r="B79" s="19">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="C79" s="20"/>
+      <c r="D79" s="20"/>
+      <c r="E79" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F79" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G79" s="21"/>
+      <c r="H79" s="15"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="15"/>
+      <c r="B80" s="19">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C80" s="20"/>
+      <c r="D80" s="20"/>
+      <c r="E80" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F80" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G80" s="21"/>
+      <c r="H80" s="15"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="15"/>
+      <c r="B81" s="19">
+        <v>0.5625</v>
+      </c>
+      <c r="C81" s="20"/>
+      <c r="D81" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E81" s="20"/>
+      <c r="F81" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G81" s="21"/>
+      <c r="H81" s="15"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="15"/>
+      <c r="B82" s="19">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="C82" s="20"/>
+      <c r="D82" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E82" s="20"/>
+      <c r="F82" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G82" s="21"/>
+      <c r="H82" s="15"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="15"/>
+      <c r="B83" s="19">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="C83" s="20"/>
+      <c r="D83" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E83" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F83" s="20"/>
+      <c r="G83" s="21"/>
+      <c r="H83" s="15"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="15"/>
+      <c r="B84" s="22">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="C84" s="23"/>
+      <c r="D84" s="23"/>
+      <c r="E84" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="F84" s="23"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="15"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="15"/>
+      <c r="B85" s="15"/>
+      <c r="C85" s="15"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="15"/>
+      <c r="H85" s="15"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="15"/>
+      <c r="B86" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C86" s="29">
+        <v>45012</v>
+      </c>
+      <c r="D86" s="29">
+        <v>45013</v>
+      </c>
+      <c r="E86" s="29">
+        <v>45014</v>
+      </c>
+      <c r="F86" s="29">
+        <v>45015</v>
+      </c>
+      <c r="G86" s="30">
+        <v>45016</v>
+      </c>
+      <c r="H86" s="15"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="15"/>
+      <c r="B87" s="16">
+        <v>8</v>
+      </c>
+      <c r="C87" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D87" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E87" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F87" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="G87" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="H87" s="15"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="15"/>
+      <c r="B88" s="19">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C88" s="20"/>
+      <c r="D88" s="20"/>
+      <c r="E88" s="20"/>
+      <c r="F88" s="20"/>
+      <c r="G88" s="21"/>
+      <c r="H88" s="15"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="15"/>
+      <c r="B89" s="19">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="C89" s="20"/>
+      <c r="D89" s="20"/>
+      <c r="E89" s="20"/>
+      <c r="F89" s="20"/>
+      <c r="G89" s="21"/>
+      <c r="H89" s="15"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="15"/>
+      <c r="B90" s="19">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="C90" s="20"/>
+      <c r="D90" s="20"/>
+      <c r="E90" s="20"/>
+      <c r="F90" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="G90" s="21"/>
+      <c r="H90" s="15"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="15"/>
+      <c r="B91" s="19">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="C91" s="20"/>
+      <c r="D91" s="20"/>
+      <c r="E91" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F91" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="G91" s="21"/>
+      <c r="H91" s="15"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="15"/>
+      <c r="B92" s="19">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C92" s="20"/>
+      <c r="D92" s="20"/>
+      <c r="E92" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F92" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="G92" s="21"/>
+      <c r="H92" s="15"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="15"/>
+      <c r="B93" s="19">
+        <v>0.5625</v>
+      </c>
+      <c r="C93" s="20"/>
+      <c r="D93" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E93" s="20"/>
+      <c r="F93" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="G93" s="21"/>
+      <c r="H93" s="15"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="15"/>
+      <c r="B94" s="19">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="C94" s="20"/>
+      <c r="D94" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E94" s="20"/>
+      <c r="F94" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="G94" s="21"/>
+      <c r="H94" s="15"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="15"/>
+      <c r="B95" s="19">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="C95" s="20"/>
+      <c r="D95" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E95" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F95" s="20"/>
+      <c r="G95" s="21"/>
+      <c r="H95" s="15"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="15"/>
+      <c r="B96" s="22">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="C96" s="23"/>
+      <c r="D96" s="23"/>
+      <c r="E96" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="F96" s="23"/>
+      <c r="G96" s="25"/>
+      <c r="H96" s="15"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="15"/>
+      <c r="B97" s="15"/>
+      <c r="C97" s="15"/>
+      <c r="D97" s="15"/>
+      <c r="E97" s="15"/>
+      <c r="F97" s="15"/>
+      <c r="G97" s="15"/>
+      <c r="H97" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H270"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -985,6 +2853,9 @@
       <c r="D16" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="E16" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="F16" s="7">
         <v>0.66319444444444442</v>
       </c>
@@ -997,23 +2868,57 @@
       </c>
     </row>
     <row r="17" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
+      <c r="A17" s="8">
+        <v>44965</v>
+      </c>
+      <c r="B17" s="3">
+        <v>2</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0.46875</v>
+      </c>
       <c r="H17" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333315E-2</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
+      <c r="A18" s="8">
+        <v>44965</v>
+      </c>
+      <c r="B18" s="3">
+        <v>2</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0.46875</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0.51041666666666663</v>
+      </c>
       <c r="H18" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -1325,7 +3230,7 @@
     <row r="51" spans="3:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="H51" s="7">
         <f>SUM(H2:H50)</f>
-        <v>0.49652777777777751</v>
+        <v>0.55902777777777746</v>
       </c>
     </row>
     <row r="52" spans="3:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
@@ -1565,7 +3470,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C288"/>
   <sheetViews>
@@ -3055,7 +4960,59 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="14">
+        <v>28963</v>
+      </c>
+      <c r="D2" s="14">
+        <v>44965</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>

--- a/Rendu/Journaux.xlsx
+++ b/Rendu/Journaux.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13455" windowHeight="12255" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13455" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Planification" sheetId="5" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="80">
   <si>
     <t>Date</t>
   </si>
@@ -336,7 +336,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -382,6 +382,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,7 +485,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -549,6 +555,11 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -832,8 +843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1371,7 +1382,7 @@
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
       <c r="E30" s="20"/>
-      <c r="F30" s="17" t="s">
+      <c r="F30" s="45" t="s">
         <v>66</v>
       </c>
       <c r="G30" s="21"/>
@@ -1384,10 +1395,10 @@
       </c>
       <c r="C31" s="20"/>
       <c r="D31" s="20"/>
-      <c r="E31" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="F31" s="17" t="s">
+      <c r="E31" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" s="45" t="s">
         <v>66</v>
       </c>
       <c r="G31" s="21"/>
@@ -1400,10 +1411,10 @@
       </c>
       <c r="C32" s="20"/>
       <c r="D32" s="20"/>
-      <c r="E32" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="F32" s="17" t="s">
+      <c r="E32" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" s="45" t="s">
         <v>66</v>
       </c>
       <c r="G32" s="21"/>
@@ -1415,11 +1426,11 @@
         <v>0.5625</v>
       </c>
       <c r="C33" s="20"/>
-      <c r="D33" s="17" t="s">
+      <c r="D33" s="43" t="s">
         <v>66</v>
       </c>
       <c r="E33" s="20"/>
-      <c r="F33" s="17" t="s">
+      <c r="F33" s="45" t="s">
         <v>66</v>
       </c>
       <c r="G33" s="21"/>
@@ -1431,11 +1442,11 @@
         <v>0.59722222222222221</v>
       </c>
       <c r="C34" s="20"/>
-      <c r="D34" s="17" t="s">
+      <c r="D34" s="43" t="s">
         <v>66</v>
       </c>
       <c r="E34" s="20"/>
-      <c r="F34" s="17" t="s">
+      <c r="F34" s="41" t="s">
         <v>66</v>
       </c>
       <c r="G34" s="21"/>
@@ -1447,10 +1458,10 @@
         <v>0.63888888888888895</v>
       </c>
       <c r="C35" s="20"/>
-      <c r="D35" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E35" s="17" t="s">
+      <c r="D35" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="E35" s="43" t="s">
         <v>66</v>
       </c>
       <c r="F35" s="20"/>
@@ -1464,7 +1475,7 @@
       </c>
       <c r="C36" s="23"/>
       <c r="D36" s="23"/>
-      <c r="E36" s="24" t="s">
+      <c r="E36" s="44" t="s">
         <v>66</v>
       </c>
       <c r="F36" s="23"/>
@@ -1557,7 +1568,7 @@
       <c r="C42" s="20"/>
       <c r="D42" s="20"/>
       <c r="E42" s="20"/>
-      <c r="F42" s="17" t="s">
+      <c r="F42" s="45" t="s">
         <v>66</v>
       </c>
       <c r="G42" s="21"/>
@@ -1570,10 +1581,10 @@
       </c>
       <c r="C43" s="20"/>
       <c r="D43" s="20"/>
-      <c r="E43" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="F43" s="17" t="s">
+      <c r="E43" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="F43" s="45" t="s">
         <v>66</v>
       </c>
       <c r="G43" s="21"/>
@@ -1586,10 +1597,10 @@
       </c>
       <c r="C44" s="20"/>
       <c r="D44" s="20"/>
-      <c r="E44" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="F44" s="17" t="s">
+      <c r="E44" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="F44" s="45" t="s">
         <v>66</v>
       </c>
       <c r="G44" s="21"/>
@@ -1601,11 +1612,11 @@
         <v>0.5625</v>
       </c>
       <c r="C45" s="20"/>
-      <c r="D45" s="17" t="s">
+      <c r="D45" s="45" t="s">
         <v>66</v>
       </c>
       <c r="E45" s="20"/>
-      <c r="F45" s="17" t="s">
+      <c r="F45" s="45" t="s">
         <v>66</v>
       </c>
       <c r="G45" s="21"/>
@@ -1617,11 +1628,11 @@
         <v>0.59722222222222221</v>
       </c>
       <c r="C46" s="20"/>
-      <c r="D46" s="17" t="s">
+      <c r="D46" s="45" t="s">
         <v>66</v>
       </c>
       <c r="E46" s="20"/>
-      <c r="F46" s="17" t="s">
+      <c r="F46" s="41" t="s">
         <v>66</v>
       </c>
       <c r="G46" s="21"/>
@@ -1633,10 +1644,10 @@
         <v>0.63888888888888895</v>
       </c>
       <c r="C47" s="20"/>
-      <c r="D47" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E47" s="17" t="s">
+      <c r="D47" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="E47" s="45" t="s">
         <v>66</v>
       </c>
       <c r="F47" s="20"/>
@@ -1650,7 +1661,7 @@
       </c>
       <c r="C48" s="23"/>
       <c r="D48" s="23"/>
-      <c r="E48" s="24" t="s">
+      <c r="E48" s="42" t="s">
         <v>66</v>
       </c>
       <c r="F48" s="23"/>
@@ -1743,7 +1754,7 @@
       <c r="C54" s="20"/>
       <c r="D54" s="20"/>
       <c r="E54" s="20"/>
-      <c r="F54" s="17" t="s">
+      <c r="F54" s="45" t="s">
         <v>66</v>
       </c>
       <c r="G54" s="21"/>
@@ -1756,10 +1767,10 @@
       </c>
       <c r="C55" s="20"/>
       <c r="D55" s="20"/>
-      <c r="E55" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="F55" s="17" t="s">
+      <c r="E55" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="F55" s="45" t="s">
         <v>66</v>
       </c>
       <c r="G55" s="21"/>
@@ -1772,10 +1783,10 @@
       </c>
       <c r="C56" s="20"/>
       <c r="D56" s="20"/>
-      <c r="E56" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="F56" s="17" t="s">
+      <c r="E56" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="F56" s="45" t="s">
         <v>66</v>
       </c>
       <c r="G56" s="21"/>
@@ -1787,11 +1798,11 @@
         <v>0.5625</v>
       </c>
       <c r="C57" s="20"/>
-      <c r="D57" s="17" t="s">
+      <c r="D57" s="45" t="s">
         <v>66</v>
       </c>
       <c r="E57" s="20"/>
-      <c r="F57" s="17" t="s">
+      <c r="F57" s="45" t="s">
         <v>66</v>
       </c>
       <c r="G57" s="21"/>
@@ -1803,11 +1814,11 @@
         <v>0.59722222222222221</v>
       </c>
       <c r="C58" s="20"/>
-      <c r="D58" s="17" t="s">
+      <c r="D58" s="45" t="s">
         <v>66</v>
       </c>
       <c r="E58" s="20"/>
-      <c r="F58" s="17" t="s">
+      <c r="F58" s="41" t="s">
         <v>66</v>
       </c>
       <c r="G58" s="21"/>
@@ -1819,10 +1830,10 @@
         <v>0.63888888888888895</v>
       </c>
       <c r="C59" s="20"/>
-      <c r="D59" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E59" s="17" t="s">
+      <c r="D59" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="E59" s="45" t="s">
         <v>66</v>
       </c>
       <c r="F59" s="20"/>
@@ -1836,7 +1847,7 @@
       </c>
       <c r="C60" s="23"/>
       <c r="D60" s="23"/>
-      <c r="E60" s="24" t="s">
+      <c r="E60" s="42" t="s">
         <v>66</v>
       </c>
       <c r="F60" s="23"/>
@@ -1929,7 +1940,7 @@
       <c r="C66" s="20"/>
       <c r="D66" s="20"/>
       <c r="E66" s="20"/>
-      <c r="F66" s="17" t="s">
+      <c r="F66" s="45" t="s">
         <v>66</v>
       </c>
       <c r="G66" s="21"/>
@@ -1942,10 +1953,10 @@
       </c>
       <c r="C67" s="20"/>
       <c r="D67" s="20"/>
-      <c r="E67" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="F67" s="17" t="s">
+      <c r="E67" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="F67" s="45" t="s">
         <v>66</v>
       </c>
       <c r="G67" s="21"/>
@@ -1958,10 +1969,10 @@
       </c>
       <c r="C68" s="20"/>
       <c r="D68" s="20"/>
-      <c r="E68" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="F68" s="17" t="s">
+      <c r="E68" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="F68" s="45" t="s">
         <v>66</v>
       </c>
       <c r="G68" s="21"/>
@@ -1973,11 +1984,11 @@
         <v>0.5625</v>
       </c>
       <c r="C69" s="20"/>
-      <c r="D69" s="17" t="s">
+      <c r="D69" s="45" t="s">
         <v>66</v>
       </c>
       <c r="E69" s="20"/>
-      <c r="F69" s="17" t="s">
+      <c r="F69" s="45" t="s">
         <v>66</v>
       </c>
       <c r="G69" s="21"/>
@@ -1989,11 +2000,11 @@
         <v>0.59722222222222221</v>
       </c>
       <c r="C70" s="20"/>
-      <c r="D70" s="17" t="s">
+      <c r="D70" s="45" t="s">
         <v>66</v>
       </c>
       <c r="E70" s="20"/>
-      <c r="F70" s="17" t="s">
+      <c r="F70" s="41" t="s">
         <v>66</v>
       </c>
       <c r="G70" s="21"/>
@@ -2005,10 +2016,10 @@
         <v>0.63888888888888895</v>
       </c>
       <c r="C71" s="20"/>
-      <c r="D71" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E71" s="17" t="s">
+      <c r="D71" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="E71" s="45" t="s">
         <v>66</v>
       </c>
       <c r="F71" s="20"/>
@@ -2022,7 +2033,7 @@
       </c>
       <c r="C72" s="23"/>
       <c r="D72" s="23"/>
-      <c r="E72" s="24" t="s">
+      <c r="E72" s="42" t="s">
         <v>66</v>
       </c>
       <c r="F72" s="23"/>
@@ -2115,7 +2126,7 @@
       <c r="C78" s="20"/>
       <c r="D78" s="20"/>
       <c r="E78" s="20"/>
-      <c r="F78" s="17" t="s">
+      <c r="F78" s="45" t="s">
         <v>66</v>
       </c>
       <c r="G78" s="21"/>
@@ -2128,10 +2139,10 @@
       </c>
       <c r="C79" s="20"/>
       <c r="D79" s="20"/>
-      <c r="E79" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="F79" s="17" t="s">
+      <c r="E79" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="F79" s="45" t="s">
         <v>66</v>
       </c>
       <c r="G79" s="21"/>
@@ -2144,10 +2155,10 @@
       </c>
       <c r="C80" s="20"/>
       <c r="D80" s="20"/>
-      <c r="E80" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="F80" s="17" t="s">
+      <c r="E80" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="F80" s="45" t="s">
         <v>66</v>
       </c>
       <c r="G80" s="21"/>
@@ -2159,7 +2170,7 @@
         <v>0.5625</v>
       </c>
       <c r="C81" s="20"/>
-      <c r="D81" s="17" t="s">
+      <c r="D81" s="45" t="s">
         <v>66</v>
       </c>
       <c r="E81" s="20"/>
@@ -2175,7 +2186,7 @@
         <v>0.59722222222222221</v>
       </c>
       <c r="C82" s="20"/>
-      <c r="D82" s="17" t="s">
+      <c r="D82" s="45" t="s">
         <v>66</v>
       </c>
       <c r="E82" s="20"/>
@@ -2421,8 +2432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H270"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2922,13 +2933,28 @@
       </c>
     </row>
     <row r="19" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="F19" s="7"/>
+      <c r="A19" s="8">
+        <v>44966</v>
+      </c>
+      <c r="B19" s="3">
+        <v>2</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0.40972222222222227</v>
+      </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-0.40972222222222227</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -3230,7 +3256,7 @@
     <row r="51" spans="3:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="H51" s="7">
         <f>SUM(H2:H50)</f>
-        <v>0.55902777777777746</v>
+        <v>0.14930555555555519</v>
       </c>
     </row>
     <row r="52" spans="3:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>

--- a/Rendu/Journaux.xlsx
+++ b/Rendu/Journaux.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13455" windowHeight="12255"/>
   </bookViews>
   <sheets>
-    <sheet name="Planification" sheetId="5" r:id="rId1"/>
+    <sheet name="Planification initiale" sheetId="5" r:id="rId1"/>
     <sheet name="Journal de travail" sheetId="2" r:id="rId2"/>
     <sheet name="Journal de bord" sheetId="1" r:id="rId3"/>
     <sheet name="Sources" sheetId="4" r:id="rId4"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="110">
   <si>
     <t>Date</t>
   </si>
@@ -268,6 +268,96 @@
   </si>
   <si>
     <t>Analyse et recherches</t>
+  </si>
+  <si>
+    <t>Discussion avec Mr. Varela</t>
+  </si>
+  <si>
+    <t>Avancée du projet, personne de contact, documentation à rendre.</t>
+  </si>
+  <si>
+    <t>Analyse et recherche</t>
+  </si>
+  <si>
+    <t>Fonctionnement interface GUI</t>
+  </si>
+  <si>
+    <t>Fonctionnement interface CLI</t>
+  </si>
+  <si>
+    <t>Installation physique du pare-feu</t>
+  </si>
+  <si>
+    <t>Mise à zero du fortinet</t>
+  </si>
+  <si>
+    <t>Réunion avec Sip</t>
+  </si>
+  <si>
+    <t>Recherche NAT/PAT</t>
+  </si>
+  <si>
+    <t>Recherche DHCP Fortinet</t>
+  </si>
+  <si>
+    <t>Règle pare-feu</t>
+  </si>
+  <si>
+    <t>Création réseau et sous-réseaux</t>
+  </si>
+  <si>
+    <t>Création table de routage</t>
+  </si>
+  <si>
+    <t>Installation physique du fortinet sur PC16</t>
+  </si>
+  <si>
+    <t>Connexion au réseau de l'école</t>
+  </si>
+  <si>
+    <t>Site intranet est accessible</t>
+  </si>
+  <si>
+    <t>PC16 arrive à rejoindre LAN1</t>
+  </si>
+  <si>
+    <t>Ajout d'une deuxième machine sur LAN1</t>
+  </si>
+  <si>
+    <t>PC12 arrive à rejoindre LAN1</t>
+  </si>
+  <si>
+    <t>Test ICMP PC16 &amp; PC12</t>
+  </si>
+  <si>
+    <t>Création de pare-feu LAN1</t>
+  </si>
+  <si>
+    <t>Ajout des règles CPNV+1 au PFLAN1</t>
+  </si>
+  <si>
+    <t>Test accès vs règles</t>
+  </si>
+  <si>
+    <t>Création sous-réseau "LAN1"</t>
+  </si>
+  <si>
+    <t>Création sous-réseau "LAN2"</t>
+  </si>
+  <si>
+    <t>PC12 arrive à rejoindre LAN2</t>
+  </si>
+  <si>
+    <t>Site intranet est accessible depuis LAN2</t>
+  </si>
+  <si>
+    <t>Création de pare-feu LAN2</t>
+  </si>
+  <si>
+    <t>Ajout des règles CPNV+2 au PFLAN2</t>
+  </si>
+  <si>
+    <t>Appareil est fonctionel</t>
   </si>
 </sst>
 </file>
@@ -485,7 +575,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -560,6 +650,11 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -843,8 +938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -856,8 +951,12 @@
     <col min="7" max="7" width="7.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="1.42578125" style="3" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="3"/>
+    <col min="10" max="10" width="20" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1092,6 +1191,21 @@
       <c r="F11" s="20"/>
       <c r="G11" s="21"/>
       <c r="H11" s="15"/>
+      <c r="J11" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="K11" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="L11" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="N11" s="46" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
@@ -1106,6 +1220,18 @@
       <c r="F12" s="23"/>
       <c r="G12" s="25"/>
       <c r="H12" s="15"/>
+      <c r="J12" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
@@ -1116,6 +1242,18 @@
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
+      <c r="J13" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
@@ -1138,6 +1276,18 @@
         <v>44968</v>
       </c>
       <c r="H14" s="15"/>
+      <c r="J14" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
@@ -1160,6 +1310,15 @@
         <v>65</v>
       </c>
       <c r="H15" s="15"/>
+      <c r="K15" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
@@ -1172,8 +1331,14 @@
       <c r="F16" s="20"/>
       <c r="G16" s="21"/>
       <c r="H16" s="15"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K16" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="B17" s="19">
         <v>0.36805555555555558</v>
@@ -1184,8 +1349,14 @@
       <c r="F17" s="20"/>
       <c r="G17" s="21"/>
       <c r="H17" s="15"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K17" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
       <c r="B18" s="19">
         <v>0.40972222222222227</v>
@@ -1198,8 +1369,17 @@
       </c>
       <c r="G18" s="21"/>
       <c r="H18" s="15"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K18" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
       <c r="B19" s="19">
         <v>0.44444444444444442</v>
@@ -1214,8 +1394,14 @@
       </c>
       <c r="G19" s="21"/>
       <c r="H19" s="15"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L19" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
       <c r="B20" s="19">
         <v>0.47916666666666669</v>
@@ -1230,8 +1416,11 @@
       </c>
       <c r="G20" s="21"/>
       <c r="H20" s="15"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M20" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
       <c r="B21" s="19">
         <v>0.5625</v>
@@ -1246,8 +1435,11 @@
       </c>
       <c r="G21" s="21"/>
       <c r="H21" s="15"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L21" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
       <c r="B22" s="19">
         <v>0.59722222222222221</v>
@@ -1262,8 +1454,14 @@
       </c>
       <c r="G22" s="21"/>
       <c r="H22" s="15"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L22" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
       <c r="B23" s="19">
         <v>0.63888888888888895</v>
@@ -1282,7 +1480,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="B24" s="22">
         <v>0.67361111111111116</v>
@@ -1296,7 +1494,7 @@
       <c r="G24" s="25"/>
       <c r="H24" s="15"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
@@ -1306,7 +1504,7 @@
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="28" t="s">
         <v>68</v>
@@ -1328,7 +1526,7 @@
       </c>
       <c r="H26" s="15"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
       <c r="B27" s="16">
         <v>3</v>
@@ -1350,7 +1548,7 @@
       </c>
       <c r="H27" s="15"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="19">
         <v>0.33333333333333331</v>
@@ -1362,7 +1560,7 @@
       <c r="G28" s="21"/>
       <c r="H28" s="15"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
       <c r="B29" s="19">
         <v>0.36805555555555558</v>
@@ -1374,7 +1572,7 @@
       <c r="G29" s="21"/>
       <c r="H29" s="15"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="19">
         <v>0.40972222222222227</v>
@@ -1388,7 +1586,7 @@
       <c r="G30" s="21"/>
       <c r="H30" s="15"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
       <c r="B31" s="19">
         <v>0.44444444444444442</v>
@@ -1404,7 +1602,7 @@
       <c r="G31" s="21"/>
       <c r="H31" s="15"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
       <c r="B32" s="19">
         <v>0.47916666666666669</v>
@@ -2432,8 +2630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H270"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2951,20 +3149,37 @@
       <c r="F19" s="7">
         <v>0.40972222222222227</v>
       </c>
-      <c r="G19" s="7"/>
+      <c r="G19" s="7">
+        <v>0.51041666666666663</v>
+      </c>
       <c r="H19" s="7">
         <f t="shared" si="0"/>
-        <v>-0.40972222222222227</v>
+        <v>0.10069444444444436</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
-      <c r="C20" s="9"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
+      <c r="B20" s="3">
+        <v>2</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0.5625</v>
+      </c>
+      <c r="G20" s="7">
+        <v>0.59375</v>
+      </c>
       <c r="H20" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -3256,7 +3471,7 @@
     <row r="51" spans="3:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="H51" s="7">
         <f>SUM(H2:H50)</f>
-        <v>0.14930555555555519</v>
+        <v>0.69097222222222188</v>
       </c>
     </row>
     <row r="52" spans="3:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>

--- a/Rendu/Journaux.xlsx
+++ b/Rendu/Journaux.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="109">
   <si>
     <t>Date</t>
   </si>
@@ -262,9 +262,6 @@
   </si>
   <si>
     <t>Présentation</t>
-  </si>
-  <si>
-    <t>Total périodes</t>
   </si>
   <si>
     <t>Analyse et recherches</t>
@@ -938,8 +935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M43" sqref="M43"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -997,15 +994,7 @@
         <v>0.125</v>
       </c>
       <c r="L2" s="27">
-        <f>$N$2*K2</f>
-        <v>10.25</v>
-      </c>
-      <c r="M2" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="N2" s="27">
-        <f>(6*12)+(1*10)</f>
-        <v>82</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1030,14 +1019,16 @@
       </c>
       <c r="H3" s="15"/>
       <c r="J3" s="37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K3" s="31">
         <v>0.2</v>
       </c>
       <c r="L3" s="27">
-        <f t="shared" ref="L3:L6" si="0">$N$2*K3</f>
-        <v>16.400000000000002</v>
+        <v>13</v>
+      </c>
+      <c r="N3" s="3">
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -1055,11 +1046,10 @@
         <v>15</v>
       </c>
       <c r="K4" s="31">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="L4" s="27">
-        <f t="shared" si="0"/>
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1080,8 +1070,7 @@
         <v>0.1</v>
       </c>
       <c r="L5" s="27">
-        <f t="shared" si="0"/>
-        <v>8.2000000000000011</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1104,8 +1093,7 @@
         <v>0.2</v>
       </c>
       <c r="L6" s="27">
-        <f t="shared" si="0"/>
-        <v>16.400000000000002</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1125,7 +1113,11 @@
       <c r="H7" s="15"/>
       <c r="K7" s="32">
         <f>SUM(K2:K6)</f>
-        <v>1.125</v>
+        <v>1</v>
+      </c>
+      <c r="L7" s="3">
+        <f>SUM(L2:L6)</f>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1195,7 +1187,7 @@
         <v>76</v>
       </c>
       <c r="K11" s="49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L11" s="48" t="s">
         <v>15</v>
@@ -1221,16 +1213,16 @@
       <c r="G12" s="25"/>
       <c r="H12" s="15"/>
       <c r="J12" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1243,16 +1235,16 @@
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
       <c r="J13" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L13" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="M13" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1277,16 +1269,16 @@
       </c>
       <c r="H14" s="15"/>
       <c r="J14" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1311,13 +1303,13 @@
       </c>
       <c r="H15" s="15"/>
       <c r="K15" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L15" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="M15" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1332,10 +1324,10 @@
       <c r="G16" s="21"/>
       <c r="H16" s="15"/>
       <c r="K16" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1350,10 +1342,10 @@
       <c r="G17" s="21"/>
       <c r="H17" s="15"/>
       <c r="K17" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1370,13 +1362,13 @@
       <c r="G18" s="21"/>
       <c r="H18" s="15"/>
       <c r="K18" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L18" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="M18" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1395,10 +1387,10 @@
       <c r="G19" s="21"/>
       <c r="H19" s="15"/>
       <c r="L19" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="M19" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1417,7 +1409,7 @@
       <c r="G20" s="21"/>
       <c r="H20" s="15"/>
       <c r="M20" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1436,7 +1428,7 @@
       <c r="G21" s="21"/>
       <c r="H21" s="15"/>
       <c r="L21" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1455,10 +1447,10 @@
       <c r="G22" s="21"/>
       <c r="H22" s="15"/>
       <c r="L22" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -3166,10 +3158,10 @@
         <v>17</v>
       </c>
       <c r="D20" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="F20" s="7">
         <v>0.5625</v>

--- a/Rendu/Journaux.xlsx
+++ b/Rendu/Journaux.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="110">
   <si>
     <t>Date</t>
   </si>
@@ -355,6 +355,9 @@
   </si>
   <si>
     <t>Appareil est fonctionel</t>
+  </si>
+  <si>
+    <t>Recherches diverse</t>
   </si>
 </sst>
 </file>
@@ -935,8 +938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -947,7 +950,7 @@
     <col min="6" max="6" width="8.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="1.42578125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.7109375" style="3" customWidth="1"/>
     <col min="10" max="10" width="20" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="25.42578125" style="3" bestFit="1" customWidth="1"/>
@@ -996,6 +999,9 @@
       <c r="L2" s="27">
         <v>8</v>
       </c>
+      <c r="M2" s="27">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
@@ -1026,6 +1032,9 @@
       </c>
       <c r="L3" s="27">
         <v>13</v>
+      </c>
+      <c r="M3" s="27">
+        <v>17</v>
       </c>
       <c r="N3" s="3">
         <v>66</v>
@@ -1051,6 +1060,9 @@
       <c r="L4" s="27">
         <v>26</v>
       </c>
+      <c r="M4" s="27">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
@@ -1072,6 +1084,10 @@
       <c r="L5" s="27">
         <v>6</v>
       </c>
+      <c r="M5" s="27">
+        <f t="shared" ref="M3:M7" si="0">(L5*4)/3</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
@@ -1094,6 +1110,9 @@
       </c>
       <c r="L6" s="27">
         <v>13</v>
+      </c>
+      <c r="M6" s="27">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1118,6 +1137,10 @@
       <c r="L7" s="3">
         <f>SUM(L2:L6)</f>
         <v>66</v>
+      </c>
+      <c r="M7" s="27">
+        <f>SUM(M2:M6)</f>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1302,6 +1325,9 @@
         <v>65</v>
       </c>
       <c r="H15" s="15"/>
+      <c r="J15" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="K15" s="3" t="s">
         <v>90</v>
       </c>
